--- a/zh/asset-workflow/scene-managing/release-resources.xlsx
+++ b/zh/asset-workflow/scene-managing/release-resources.xlsx
@@ -1,92 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
-  <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yufang/repos/creator-docs/zh/asset-workflow/scene-managing/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="中文" sheetId="1" r:id="rId1"/>
     <sheet name="English" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
+    <t>释放资源</t>
+  </si>
+  <si>
+    <t>启用“自动释放资源”</t>
+  </si>
+  <si>
+    <t>不启用“自动释放资源”</t>
+  </si>
+  <si>
+    <t>被脚本引用到</t>
+  </si>
+  <si>
+    <t>未被脚本引用</t>
+  </si>
+  <si>
+    <t>手动释放资源</t>
+  </si>
+  <si>
     <t>不释放资源</t>
-    <rPh sb="0" eb="1">
-      <t>bu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>shi fnag zi yuan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放资源</t>
-    <rPh sb="0" eb="1">
-      <t>shi fnag zi yuan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启用“自动释放资源”</t>
-    <rPh sb="0" eb="1">
-      <t>qi yong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不启用“自动释放资源”</t>
-    <rPh sb="0" eb="1">
-      <t>bu qi yong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">该场景中直接或间接引用到的所有资源（脚本动态加载的不算），默认都会自动释放。
-</t>
-    <rPh sb="32" eb="33">
-      <t>hui</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>zi dong shi fang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动释放资源</t>
-    <rPh sb="0" eb="1">
-      <t>shou dong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi fnag zi yuan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">当场景切换后，由于资源已经被释放，脚本中的引用可能会变成非法的，有可能引起渲染异常等问题。那么可以使用 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Avenir Book"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cc.assetManager.finalizer.lock</t>
+    </r>
     <r>
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="黑体-简 细体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">    来保留这些脚本资源在场景切换时不被释放。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">该场景中直接或间接引用到的所有资源（脚本动态加载的不算），默认都会自动释放。
+</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">调用 </t>
     </r>
     <r>
@@ -94,23 +73,28 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Avenir Book"/>
+        <charset val="134"/>
       </rPr>
-      <t>cc.loader.release</t>
+      <t>cc.assetManager.release</t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="黑体-简 细体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 释放资源</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF24292E"/>
+        <rFont val="黑体-简 细体"/>
+        <charset val="136"/>
+      </rPr>
       <t>该场景中直接或间接引用到的所有资源，都</t>
     </r>
     <r>
@@ -132,132 +116,39 @@
       </rPr>
       <t>主动释放。</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被脚本引用到</t>
-    <rPh sb="0" eb="1">
-      <t>bei</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>yin yong dao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未被脚本引用</t>
-    <rPh sb="0" eb="1">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>bei</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>yin yong dao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">当场景切换后，由于资源已经被释放，脚本中的引用可能会变成非法的，有可能引起渲染异常等问题。那么可以使用 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Avenir Book"/>
-      </rPr>
-      <t>cc.loader.setAutoRelease</t>
-    </r>
+  </si>
+  <si>
+    <t>已知问题：粒子系统的 plist 所引用的贴图不会被自动释放。如果要自动释放粒子贴图，请从 plist 中移除贴图信息，改用粒子组件的 Texture 属性来指定贴图。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Releasing resources </t>
+  </si>
+  <si>
+    <t>Enable "Auto Release Assets"</t>
+  </si>
+  <si>
+    <t>Disable "Auto Release Assets"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Referenced by script </t>
+  </si>
+  <si>
+    <t>Not referenced by script</t>
+  </si>
+  <si>
+    <t>Manually releasing resources</t>
+  </si>
+  <si>
+    <t>Do not release resources</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="黑体-简 细体"/>
-        <family val="3"/>
+        <rFont val="Avenir Book"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> 或者 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Avenir Book"/>
-      </rPr>
-      <t>cc.loader.setAutoReleaseRecursively</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="黑体-简 细体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 来保留这些脚本资源在场景切换时不被释放。</t>
-    </r>
-    <rPh sb="17" eb="18">
-      <t>jiao ben zhong de</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>na me</t>
-    </rPh>
-    <rPh sb="121" eb="122">
-      <t>jiao ben</t>
-    </rPh>
-    <rPh sb="125" eb="126">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="126" eb="127">
-      <t>chang jing qie huan shi</t>
-    </rPh>
-    <rPh sb="131" eb="132">
-      <t>bu bei</t>
-    </rPh>
-    <rPh sb="133" eb="134">
-      <t>shi fang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Releasing resources </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Referenced by script </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Not referenced by script</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Do not release resources</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Known issues: The texture referenced by the plist of the particle system is not automatically released. If you want to automatically release the particle texture, remove the texture information from the plist and use the Texture property of the particle component to assign the texture.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已知问题：粒子系统的 plist 所引用的贴图不会被自动释放。如果要自动释放粒子贴图，请从 plist 中移除贴图信息，改用粒子组件的 Texture 属性来指定贴图。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable "Auto Release Assets"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Disable "Auto Release Assets"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Manually releasing resources</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>When the scene is switched, the references in the script may become illegal because the resources have been freed, which can cause problems such as rendering exceptions. You can use '</t>
     </r>
     <r>
@@ -266,6 +157,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Avenir Book"/>
+        <charset val="134"/>
       </rPr>
       <t>cc.loader.setAutoRelease'</t>
     </r>
@@ -274,6 +166,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Avenir Book"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> or '</t>
     </r>
@@ -283,6 +176,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Avenir Book"/>
+        <charset val="134"/>
       </rPr>
       <t>cc.loader.setAutoReleaseRecursively'</t>
     </r>
@@ -291,21 +185,22 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Avenir Book"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> to keep these script resources from being freed when the scene is switched.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>All assets (directly or indirectly) referenced by current scene (except loaded dynamically in scripts) will release by default.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All assets (directly or indirectly) referenced by current scene will not release by default.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Avenir Book"/>
+        <charset val="134"/>
+      </rPr>
       <t>Invoke '</t>
     </r>
     <r>
@@ -314,6 +209,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Avenir Book"/>
+        <charset val="134"/>
       </rPr>
       <t>cc.loader.release'</t>
     </r>
@@ -322,29 +218,33 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Avenir Book"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> to release resources</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All assets (directly or indirectly) referenced by current scene will not release by default.</t>
+  </si>
+  <si>
+    <t>Known issues: The texture referenced by the plist of the particle system is not automatically released. If you want to automatically release the particle texture, remove the texture information from the plist and use the Texture property of the particle component to assign the texture.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="35">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -352,28 +252,60 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="黑体-简 细体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Avenir Book"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Avenir Book"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Avenir Book"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Avenir Book"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF24292E"/>
+      <name val="Avenir Book"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="黑体-简 细体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="黑体-简 细体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="黑体-简 细体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="黑体-简 细体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="黑体-简 细体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -381,6 +313,170 @@
       <color rgb="FF24292E"/>
       <name val="黑体-简 细体"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Avenir Book"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Avenir Book"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -389,47 +485,202 @@
       <name val="黑体-简 细体"/>
       <charset val="136"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Avenir Book"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Avenir Book"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Avenir Book"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Avenir Book"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Avenir Book"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF24292E"/>
-      <name val="Avenir Book"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -441,7 +692,29 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
@@ -453,12 +726,38 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -468,6 +767,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -486,6 +800,19 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -495,6 +822,19 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -509,42 +849,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -553,148 +867,348 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color auto="1"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
-      <bottom/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -704,56 +1218,79 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -806,7 +1343,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -841,7 +1378,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1015,205 +1552,201 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="V33" sqref="V33"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
-    <col min="4" max="4" width="36.1640625" customWidth="1"/>
+    <col min="4" max="4" width="36.1666666666667" customWidth="1"/>
     <col min="5" max="6" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:6" s="1" customFormat="1" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="15"/>
+    <row r="2" s="1" customFormat="1" ht="49" customHeight="1" spans="2:6">
       <c r="B2"/>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="53" customHeight="1" spans="2:6">
+      <c r="B3"/>
+      <c r="C3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="31"/>
     </row>
-    <row r="3" spans="2:6" s="1" customFormat="1" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3"/>
-      <c r="C3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="7" t="s">
+    <row r="4" s="1" customFormat="1" ht="35" customHeight="1" spans="2:6">
+      <c r="B4"/>
+      <c r="C4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="D4" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="2:6" s="1" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4"/>
-      <c r="C4" s="2" t="s">
+    <row r="5" s="1" customFormat="1" ht="132" customHeight="1" spans="2:6">
+      <c r="B5"/>
+      <c r="C5" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>0</v>
+      <c r="F5" s="38" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:6" s="1" customFormat="1" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5"/>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" s="1" customFormat="1" ht="79" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" s="1" customFormat="1" ht="79" customHeight="1" spans="2:6">
       <c r="B6"/>
-      <c r="C6" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12"/>
+      <c r="C6" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="40"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:G8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="33.5" customWidth="1"/>
-    <col min="3" max="3" width="59.33203125" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" customWidth="1"/>
+    <col min="3" max="3" width="59.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="37.1666666666667" customWidth="1"/>
     <col min="5" max="6" width="27" customWidth="1"/>
     <col min="7" max="9" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:7" s="1" customFormat="1" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="15"/>
+    <row r="2" s="1" customFormat="1" ht="49" customHeight="1" spans="2:6">
       <c r="B2"/>
-      <c r="C2" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="2:7" s="1" customFormat="1" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" s="1" customFormat="1" ht="53" customHeight="1" spans="2:6">
       <c r="B3"/>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="54" customHeight="1" spans="2:6">
+      <c r="B4"/>
+      <c r="C4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30" t="s">
+      <c r="F4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="31"/>
     </row>
-    <row r="4" spans="2:7" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4"/>
-      <c r="C4" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="34" t="s">
+    <row r="5" s="1" customFormat="1" ht="144" customHeight="1" spans="2:7">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="35" t="s">
-        <v>14</v>
-      </c>
+      <c r="D5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="18"/>
     </row>
-    <row r="5" spans="2:7" s="1" customFormat="1" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="20"/>
-      <c r="C5" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="38" t="s">
+    <row r="6" s="1" customFormat="1" ht="79" customHeight="1" spans="2:6">
+      <c r="B6" s="19"/>
+      <c r="C6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="22"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
     </row>
-    <row r="6" spans="2:7" s="1" customFormat="1" ht="79" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="21"/>
-      <c r="C6" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="42"/>
+    <row r="7" ht="88" customHeight="1" spans="3:4">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
     </row>
-    <row r="7" spans="2:7" ht="88" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-    </row>
-    <row r="8" spans="2:7" ht="65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+    <row r="8" ht="65" customHeight="1" spans="3:4">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/zh/asset-workflow/scene-managing/release-resources.xlsx
+++ b/zh/asset-workflow/scene-managing/release-resources.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="中文" sheetId="1" r:id="rId1"/>
@@ -38,27 +38,7 @@
     <t>不释放资源</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">当场景切换后，由于资源已经被释放，脚本中的引用可能会变成非法的，有可能引起渲染异常等问题。那么可以使用 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Avenir Book"/>
-        <charset val="134"/>
-      </rPr>
-      <t>cc.assetManager.finalizer.lock</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="黑体-简 细体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">    来保留这些脚本资源在场景切换时不被释放。</t>
-    </r>
+    <t>当场景切换后，由于资源已经被释放，脚本中的引用可能会变成非法的，有可能引起渲染异常等问题。那么可以使用 Asset.addRef 来保留这些脚本资源在场景切换时不被释放。</t>
   </si>
   <si>
     <t xml:space="preserve">该场景中直接或间接引用到的所有资源（脚本动态加载的不算），默认都会自动释放。
@@ -75,7 +55,7 @@
         <rFont val="Avenir Book"/>
         <charset val="134"/>
       </rPr>
-      <t>cc.assetManager.release</t>
+      <t>cc.assetManager.releaseAsset</t>
     </r>
     <r>
       <rPr>
@@ -143,12 +123,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Avenir Book"/>
-        <charset val="134"/>
-      </rPr>
       <t>When the scene is switched, the references in the script may become illegal because the resources have been freed, which can cause problems such as rendering exceptions. You can use '</t>
     </r>
     <r>
@@ -159,7 +133,7 @@
         <rFont val="Avenir Book"/>
         <charset val="134"/>
       </rPr>
-      <t>cc.loader.setAutoRelease'</t>
+      <t>Asset.addRef'</t>
     </r>
     <r>
       <rPr>
@@ -168,39 +142,14 @@
         <rFont val="Avenir Book"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> or '</t>
+      <t xml:space="preserve">  to keep these script resources from being freed when the scene is switched.</t>
     </r>
+  </si>
+  <si>
+    <t>All assets (directly or indirectly) referenced by current scene (except loaded dynamically in scripts) will release by default.</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Avenir Book"/>
-        <charset val="134"/>
-      </rPr>
-      <t>cc.loader.setAutoReleaseRecursively'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Avenir Book"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> to keep these script resources from being freed when the scene is switched.</t>
-    </r>
-  </si>
-  <si>
-    <t>All assets (directly or indirectly) referenced by current scene (except loaded dynamically in scripts) will release by default.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Avenir Book"/>
-        <charset val="134"/>
-      </rPr>
       <t>Invoke '</t>
     </r>
     <r>
@@ -211,7 +160,7 @@
         <rFont val="Avenir Book"/>
         <charset val="134"/>
       </rPr>
-      <t>cc.loader.release'</t>
+      <t>cc.assetManager.releaseAsset'</t>
     </r>
     <r>
       <rPr>
@@ -236,11 +185,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="33">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -304,33 +253,13 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="黑体-简 细体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color rgb="FF24292E"/>
       <name val="黑体-简 细体"/>
       <charset val="136"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,7 +268,29 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -350,15 +301,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,16 +325,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,6 +341,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -403,56 +393,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,12 +416,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Avenir Book"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF24292E"/>
@@ -495,67 +432,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,115 +606,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,8 +811,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -895,35 +847,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,6 +888,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -953,166 +905,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1224,10 +1161,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1236,7 +1173,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1561,7 +1498,7 @@
   <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1653,7 +1590,7 @@
   <dimension ref="B1:G8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+      <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="6"/>
